--- a/src/demo/zxxt_demo_091-xlsx.w3mi.data.xlsx
+++ b/src/demo/zxxt_demo_091-xlsx.w3mi.data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\!current\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8197E332-AAFE-4D1A-BAE3-5E3B499FA8DC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4786A9-85A5-4B81-BC50-84F6919FAFCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="{R-TITLE}" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId1"/>
+    <sheet name="{R-TITLE}" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>{R-T-CAPTION}</t>
   </si>
@@ -70,6 +71,21 @@
   </si>
   <si>
     <t>Children element count: {R-T-CAPTION;func=COUNT}</t>
+  </si>
+  <si>
+    <t>Multi sheet issues with print preview</t>
+  </si>
+  <si>
+    <t>If you have problems with printing the document:</t>
+  </si>
+  <si>
+    <t>1)Create 1st sheet like this</t>
+  </si>
+  <si>
+    <t>2)or call macro like in example 070 to save file with a new name (so the entire file would be recreated)</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/office/vba/api/excel.workbook.saveas</t>
   </si>
 </sst>
 </file>
@@ -80,7 +96,7 @@
     <numFmt numFmtId="164" formatCode="mmmm"/>
     <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +121,21 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -177,10 +208,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -206,8 +238,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,13 +520,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A545E9AA-B122-493F-A3EC-DA254ED66EBD}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{938967BB-2114-402B-8067-2D98A42C3B84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
